--- a/_Out/Server/NFDataCfg/Excel_Struct/Shop.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Shop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelationValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,95 +75,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Public</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Private</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SaveInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RelationValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectType</t>
-  </si>
-  <si>
-    <t>EffectValueType</t>
-  </si>
-  <si>
-    <t>EffectValueReferType</t>
-  </si>
-  <si>
-    <t>EffectTimeValue</t>
-  </si>
-  <si>
-    <t>EffectTimeInterval</t>
-  </si>
-  <si>
-    <t>WashGroupID</t>
-  </si>
-  <si>
-    <t>ReverseReferType</t>
-  </si>
-  <si>
-    <t>EffectClearOnDead</t>
-  </si>
-  <si>
-    <t>DownSaveType</t>
+    <t>ItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>影响属性类型(效果类型)  生命，法力(可组合,叠加)</t>
-  </si>
-  <si>
-    <t>影响值类型 百分比 绝对值--如果是控制属性开关，则只能是绝对值</t>
-  </si>
-  <si>
-    <t>影响值参考类型</t>
-  </si>
-  <si>
-    <t>总共产生几次</t>
-  </si>
-  <si>
-    <t>每次间隔时间0.5f倍数</t>
-  </si>
-  <si>
-    <t>是否还原，不还原的在计算的时候不能保存在runTimeInfo,只能累计在最终值内</t>
-  </si>
-  <si>
-    <t>死亡是否清除</t>
-  </si>
-  <si>
-    <t>下线是否保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -227,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I10" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:I10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I8" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:I8"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="Id" name="Id">
       <xmlColumnPr mapId="1" xpath="/Propertys/Property/@Id" xmlDataType="string"/>
@@ -525,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -546,39 +521,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -596,18 +571,16 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -625,18 +598,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -654,18 +625,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -683,18 +652,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -712,18 +679,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -741,18 +706,16 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -770,75 +733,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Shop.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Shop.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
@@ -32,7 +31,7 @@
     <t>Save</t>
   </si>
   <si>
-    <t>View</t>
+    <t>Cache</t>
   </si>
   <si>
     <t>Index</t>
@@ -79,29 +78,365 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -109,24 +444,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -138,14 +700,58 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -195,71 +801,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,7 +1087,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -546,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -576,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -606,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -636,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -666,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -696,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -726,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -741,10 +1347,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8 F9:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
